--- a/Entrega 4/Pruebas/IniciarSesion.xlsx
+++ b/Entrega 4/Pruebas/IniciarSesion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pepus Perez Flores\Documents\DAW2020\Entrega 4\Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6162ADB4-68A5-4B14-B178-6B28870FE821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675CCA3F-E438-4C00-A0FB-E20AF3B8FCCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,9 +249,6 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -269,6 +266,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,7 +553,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,278 +565,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Entrega 4/Pruebas/IniciarSesion.xlsx
+++ b/Entrega 4/Pruebas/IniciarSesion.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pepus Perez Flores\Documents\DAW2020\Entrega 4\Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675CCA3F-E438-4C00-A0FB-E20AF3B8FCCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EAA573-7594-4390-9FC8-EA524CA0B779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
-  <si>
-    <t>Escenarios alternativos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -42,9 +41,6 @@
     <t>A1</t>
   </si>
   <si>
-    <t>Salir de interfaz</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
@@ -75,9 +71,6 @@
     <t>A11</t>
   </si>
   <si>
-    <t>El usuario puede salir en cualquier momento de la interfaz Iniciar Sesion</t>
-  </si>
-  <si>
     <t>Campo de usuario vacio</t>
   </si>
   <si>
@@ -108,9 +101,6 @@
     <t>Resultado Esperado</t>
   </si>
   <si>
-    <t>Cerrar la ventana de inicio de sesion no genera ningun error</t>
-  </si>
-  <si>
     <t>Error: Por favor escribe tu usuario</t>
   </si>
   <si>
@@ -129,9 +119,6 @@
     <t>El campo de contraseña es incorrecto para el usuario ingresado</t>
   </si>
   <si>
-    <t>La contraseña tiene mas de 50 caracteres</t>
-  </si>
-  <si>
     <t>El campo de contraseña contiene caracteres no permitidos</t>
   </si>
   <si>
@@ -177,14 +164,92 @@
     <t>A12</t>
   </si>
   <si>
-    <t>El campo de usuario tiene mas de 50 caracteres</t>
+    <t>Casos de Prueba</t>
+  </si>
+  <si>
+    <t>Registro exitoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escenarios </t>
+  </si>
+  <si>
+    <t>El usuario puede iniciar sesion exitosamente</t>
+  </si>
+  <si>
+    <t>Sesion iniciada</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Contraseña</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>El campo tiene la informacion esperada</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>El campo tiene informacion incorrecta</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>El campo esta vacio</t>
+  </si>
+  <si>
+    <t>Cuando el campo usuario es incorrecto se limpian las entradas</t>
+  </si>
+  <si>
+    <t>Al volver a escribir la contraseña el campo esta vacio</t>
+  </si>
+  <si>
+    <t>No se inicia la sesion en el sistema</t>
+  </si>
+  <si>
+    <t>Se muestra el error "el usuario no existe"</t>
+  </si>
+  <si>
+    <t>usuario.incorrecto@hotmail.com</t>
+  </si>
+  <si>
+    <t>1234abcABC.</t>
+  </si>
+  <si>
+    <t>CASOS DE PRUEBA (DATOS)</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>admin@demo.com</t>
+  </si>
+  <si>
+    <t>Estado de la Prueba</t>
+  </si>
+  <si>
+    <t>1234…</t>
+  </si>
+  <si>
+    <t>El campo de usuario tiene mas de 100 caracteres</t>
+  </si>
+  <si>
+    <t>La contraseña tiene mas de 100 caracteres</t>
+  </si>
+  <si>
+    <t>Error:La longitud maxima es 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,16 +275,40 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -242,19 +331,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -270,8 +421,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -552,291 +754,291 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="44.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="131.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.36328125" customWidth="1"/>
+    <col min="1" max="1" width="3.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="C13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="D14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="5"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="5"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="5"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -844,4 +1046,577 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8841C8-F267-49AF-A15B-BB9E54C62FBA}">
+  <dimension ref="A2:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C41A7F-56FC-40BB-B8C5-1E7F5D846A37}">
+  <dimension ref="A3:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Entrega 4/Pruebas/IniciarSesion.xlsx
+++ b/Entrega 4/Pruebas/IniciarSesion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pepus Perez Flores\Documents\DAW2020\Entrega 4\Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EAA573-7594-4390-9FC8-EA524CA0B779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A36FEDD-4DB8-4D10-8A56-34702925EC4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Error:La longitud maxima es 100</t>
+  </si>
+  <si>
+    <t>demo</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -418,40 +421,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -468,8 +437,52 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -767,12 +780,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -957,88 +970,88 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="23"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="25"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="23"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="25"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="23"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="25"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="23"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="25"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="25"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="26"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="26"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1053,7 +1066,7 @@
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A3" sqref="A3:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1074,13 +1087,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
       <c r="G3" t="s">
         <v>54</v>
       </c>
@@ -1129,16 +1142,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="27" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1146,10 +1159,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="4" t="s">
         <v>61</v>
       </c>
@@ -1341,7 +1354,7 @@
   <dimension ref="A3:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1355,13 +1368,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -1380,7 +1393,7 @@
       <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="15" t="s">
         <v>67</v>
       </c>
       <c r="J4" t="s">
@@ -1394,40 +1407,47 @@
       <c r="B5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
       <c r="E5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="16"/>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="31" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -1436,16 +1456,16 @@
       <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="18" t="s">
         <v>63</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
@@ -1454,16 +1474,16 @@
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
@@ -1472,16 +1492,16 @@
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -1490,16 +1510,16 @@
       <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
@@ -1508,16 +1528,16 @@
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="18">
         <v>1234</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -1526,16 +1546,16 @@
       <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="18" t="s">
         <v>68</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
@@ -1544,16 +1564,16 @@
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="18">
         <v>1234</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="30"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
@@ -1562,16 +1582,16 @@
       <c r="B15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -1580,16 +1600,16 @@
       <c r="B16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
@@ -1598,16 +1618,16 @@
       <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="18">
         <v>1234</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
